--- a/StudentData/Assessments/Unit4/4.2.3/SunnySkies_Data.xlsx
+++ b/StudentData/Assessments/Unit4/4.2.3/SunnySkies_Data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_71145339F59CD16BE8C3BB3AC0FC34CEA38F1C7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B525A5A-B827-4E6C-8F51-5865F4249E0D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit4/4.2.3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{1DE3E3FA-E73E-4E0E-A12A-5047A92AEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,34 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Extended_Stay</t>
-  </si>
-  <si>
-    <t>hypothesized proportion</t>
-  </si>
-  <si>
-    <t>sample size</t>
-  </si>
-  <si>
-    <t>p-hat</t>
-  </si>
-  <si>
-    <t>standard error</t>
-  </si>
-  <si>
-    <t>z-statistic</t>
-  </si>
-  <si>
-    <t>p-value (two-tailed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,810 +406,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <f>COUNTIF(A2:A151,1)/COUNT(A2:A151)</f>
-        <v>0.58666666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f>SQRT((D2*(1-D2))/D3)</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <f>(D4-D2)/D6</f>
-        <v>-0.3333333333333327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <f>2*(1-_xlfn.NORM.S.DIST(ABS(D7),TRUE))</f>
-        <v>0.73888268036352778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>0</v>
       </c>
@@ -1242,6 +1189,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -1505,28 +1466,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350EC26F-ADE7-4711-BD70-3ABE5749504E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350EC26F-ADE7-4711-BD70-3ABE5749504E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7F5CE7-7E79-4614-8A2B-D8FBD4B5E96B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E05DF32-CF62-433F-A1E1-D77A64A3B65F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E05DF32-CF62-433F-A1E1-D77A64A3B65F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7F5CE7-7E79-4614-8A2B-D8FBD4B5E96B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>